--- a/052c doc/第一次基辅包围战.xlsx
+++ b/052c doc/第一次基辅包围战.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\TempGit\FG-052D\052c doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5628BB92-9985-4D6C-BB27-B985DDDE42A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB167B35-CAFE-43E6-816D-8967EC08F986}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="612" windowWidth="23016" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6300" yWindow="48" windowWidth="23016" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="72">
   <si>
     <t>改进</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -276,6 +276,42 @@
   </si>
   <si>
     <t>ep28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fullrd75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ep49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dcpfc70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ep45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dcp70tsp2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fullrd80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dcp70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ep41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ep30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -605,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1246,12 +1282,81 @@
       <c r="D45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+      <c r="A46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.93840000000000001</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.99050000000000005</v>
+      </c>
+      <c r="E46" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C47" s="1"/>
+      <c r="A47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.93930000000000002</v>
+      </c>
       <c r="D47" s="1"/>
+      <c r="E47" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.93989999999999996</v>
+      </c>
+      <c r="E48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.93730000000000002</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.99050000000000005</v>
+      </c>
+      <c r="E49" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>69</v>
+      </c>
+      <c r="B50" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.9415</v>
+      </c>
+      <c r="E50" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/052c doc/第一次基辅包围战.xlsx
+++ b/052c doc/第一次基辅包围战.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\TempGit\FG-052D\052c doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB167B35-CAFE-43E6-816D-8967EC08F986}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714AA1E5-A9A2-4DD1-871A-5828A2AEB2A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="48" windowWidth="23016" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="82">
   <si>
     <t>改进</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,10 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fps</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>baseline</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,10 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>baseline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>joint + 10%随机跳过</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -312,6 +304,54 @@
   </si>
   <si>
     <t>ep30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次基辅包围前有效实验记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_prune 组2 压缩率50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woC ft (输入数据无跳过)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习率6step下降</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg-4 压缩率25% ft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg-2 压缩率50% ft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woC ft (输入数据67%随机跳过)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woC 66.7%随机跳过ft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woC 80%随机跳过ft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woC skip80baseskip890</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woC_cmpt50 ft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woC_cmpt67 ft</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -355,9 +395,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -641,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -655,7 +698,7 @@
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -663,610 +706,516 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C3" s="1">
+        <v>0.9415</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.99070000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C4" s="1">
+        <v>0.8296</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.96819999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1">
         <v>0.9415</v>
       </c>
-      <c r="D2" s="1">
-        <v>0.99070000000000003</v>
-      </c>
-      <c r="E2">
-        <v>31.02</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.8296</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.96819999999999995</v>
-      </c>
-      <c r="E3">
-        <v>54.69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D5" s="1">
+        <v>0.99080000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.9415</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.99080000000000001</v>
-      </c>
-      <c r="E4">
-        <v>27.98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="C6" s="1">
         <v>0.93840000000000001</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.99039999999999995</v>
-      </c>
-      <c r="E5">
-        <v>30.34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.93940000000000001</v>
       </c>
       <c r="D6" s="1">
         <v>0.99039999999999995</v>
       </c>
-      <c r="E6">
-        <v>28.78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.93940000000000001</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.99039999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.87490000000000001</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.98360000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.28420000000000001</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.61770000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="1">
-        <v>0.87490000000000001</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.98360000000000003</v>
-      </c>
-      <c r="E7">
-        <v>26.15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1">
-        <v>0.28420000000000001</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.61770000000000003</v>
-      </c>
-      <c r="E8">
-        <v>25.72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C10" s="1">
+        <v>0.78010000000000002</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.93920000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.78010000000000002</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.93920000000000003</v>
-      </c>
-      <c r="E9">
-        <v>11.61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C11" s="1">
+        <v>0.81079999999999997</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.9526</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.81079999999999997</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.9526</v>
-      </c>
-      <c r="E10">
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C12" s="1">
+        <v>0.91269999999999996</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.98719999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1">
-        <v>0.91269999999999996</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.98719999999999997</v>
-      </c>
-      <c r="E11">
-        <v>12.08</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C13" s="1">
+        <v>0.65659999999999996</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.8901</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="1">
-        <v>0.65659999999999996</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.8901</v>
-      </c>
-      <c r="E12">
-        <v>8.4700000000000006</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C14" s="1">
+        <v>0.92430000000000001</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.98860000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="1">
-        <v>0.92430000000000001</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.98860000000000003</v>
-      </c>
-      <c r="E13">
-        <v>8.6199999999999992</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="C15" s="1">
+        <v>0.79269999999999996</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.95069999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
         <v>24</v>
       </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.79269999999999996</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.95069999999999999</v>
-      </c>
-      <c r="E14">
-        <v>6.83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="C16" s="1">
         <v>0.90429999999999999</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D16" s="1">
         <v>0.98770000000000002</v>
-      </c>
-      <c r="E15">
-        <v>26.76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.9204</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.98970000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C17" s="1">
-        <v>0.93410000000000004</v>
+        <v>0.9204</v>
       </c>
       <c r="D17" s="1">
-        <v>0.99</v>
+        <v>0.98970000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1">
-        <v>0.92479999999999996</v>
+        <v>0.93410000000000004</v>
       </c>
       <c r="D18" s="1">
-        <v>0.98948999999999998</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C19" s="1">
-        <v>0.85140000000000005</v>
+        <v>0.92479999999999996</v>
       </c>
       <c r="D19" s="1">
-        <v>0.97460000000000002</v>
+        <v>0.98948999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" s="1">
-        <v>0.90249999999999997</v>
+        <v>0.85140000000000005</v>
       </c>
       <c r="D20" s="1">
-        <v>0.98609999999999998</v>
+        <v>0.97460000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C21" s="1">
-        <v>0.74250000000000005</v>
+        <v>0.90249999999999997</v>
       </c>
       <c r="D21" s="1">
-        <v>0.94489999999999996</v>
+        <v>0.98609999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C22" s="1">
+        <v>0.74250000000000005</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.94489999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="1">
         <v>0.93100000000000005</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D23" s="1">
         <v>0.99</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="F23" t="s">
-        <v>30</v>
-      </c>
-    </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.92649999999999999</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.98960000000000004</v>
+      </c>
+      <c r="F24" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.91759999999999997</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.9899</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.92759999999999998</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.98980000000000001</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="A27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.82130000000000003</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.97430000000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.84730000000000005</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.97770000000000001</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C29" s="1">
-        <v>0.93979999999999997</v>
+        <v>0.92349999999999999</v>
       </c>
       <c r="D29" s="1">
-        <v>0.98939999999999995</v>
-      </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+        <v>0.9899</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C30" s="1">
-        <v>0.94099999999999995</v>
+        <v>0.93979999999999997</v>
       </c>
       <c r="D30" s="1">
-        <v>0.99139999999999995</v>
-      </c>
-      <c r="E30" t="s">
-        <v>46</v>
-      </c>
+        <v>0.98939999999999995</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C31" s="1">
-        <v>0.94069999999999998</v>
+        <v>0.93730000000000002</v>
       </c>
       <c r="D31" s="1">
-        <v>0.99080000000000001</v>
-      </c>
-      <c r="E31" t="s">
-        <v>50</v>
+        <v>0.98939999999999995</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C32" s="1">
-        <v>0.94320000000000004</v>
+        <v>0.93230000000000002</v>
       </c>
       <c r="D32" s="1">
-        <v>0.99170000000000003</v>
-      </c>
-      <c r="E32" t="s">
-        <v>47</v>
+        <v>0.98939999999999995</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C33" s="1">
-        <v>0.94030000000000002</v>
+        <v>0.92669999999999997</v>
       </c>
       <c r="D33" s="1">
-        <v>0.99080000000000001</v>
-      </c>
-      <c r="E33" t="s">
-        <v>51</v>
+        <v>0.9869</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C34" s="1">
-        <v>0.94520000000000004</v>
+        <v>0.93740000000000001</v>
       </c>
       <c r="D34" s="1">
-        <v>0.99139999999999995</v>
-      </c>
-      <c r="E34" t="s">
-        <v>57</v>
+        <v>0.99009999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C35" s="1">
-        <v>0.9425</v>
+        <v>0.93320000000000003</v>
       </c>
       <c r="D35" s="1">
-        <v>0.9919</v>
-      </c>
-      <c r="E35" t="s">
-        <v>53</v>
+        <v>0.98850000000000005</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C36" s="1">
-        <v>0.94079999999999997</v>
+        <v>0.93910000000000005</v>
       </c>
       <c r="D36" s="1">
-        <v>0.99099999999999999</v>
+        <v>0.99119999999999997</v>
       </c>
       <c r="E36" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C37" s="1">
-        <v>0.93910000000000005</v>
+        <v>0.9385</v>
       </c>
       <c r="D37" s="1">
-        <v>0.99119999999999997</v>
+        <v>0.98919999999999997</v>
       </c>
       <c r="E37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="1">
-        <v>0.93920000000000003</v>
-      </c>
-      <c r="D38" s="1">
-        <v>0.99019999999999997</v>
-      </c>
-      <c r="E38" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" s="1">
-        <v>0.9385</v>
-      </c>
-      <c r="D39" s="1">
-        <v>0.98919999999999997</v>
-      </c>
-      <c r="E39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" t="s">
         <v>45</v>
-      </c>
-      <c r="C40" s="1">
-        <v>0.93430000000000002</v>
-      </c>
-      <c r="D40" s="1">
-        <v>0.99050000000000005</v>
-      </c>
-      <c r="E40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>60</v>
-      </c>
-      <c r="B41" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41" s="1">
-        <v>0.93910000000000005</v>
-      </c>
-      <c r="D41" s="1">
-        <v>0.99039999999999995</v>
-      </c>
-      <c r="E41" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>61</v>
-      </c>
-      <c r="B42" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" s="1">
-        <v>0.94180000000000008</v>
-      </c>
-      <c r="D42" s="1">
-        <v>0.99120000000000008</v>
-      </c>
-      <c r="E42" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1281,84 +1230,323 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>34</v>
+      </c>
+      <c r="B58" t="s">
+        <v>35</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0.93979999999999997</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0.98939999999999995</v>
+      </c>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>36</v>
+      </c>
+      <c r="B59" t="s">
+        <v>43</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0.99139999999999995</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>37</v>
+      </c>
+      <c r="B60" t="s">
+        <v>43</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0.94069999999999998</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0.99080000000000001</v>
+      </c>
+      <c r="E60" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61" t="s">
+        <v>43</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0.94320000000000004</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0.99170000000000003</v>
+      </c>
+      <c r="E61" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>39</v>
+      </c>
+      <c r="B62" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0.94030000000000002</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0.99080000000000001</v>
+      </c>
+      <c r="E62" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>54</v>
+      </c>
+      <c r="B63" t="s">
+        <v>43</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0.94520000000000004</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0.99139999999999995</v>
+      </c>
+      <c r="E63" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>40</v>
+      </c>
+      <c r="B64" t="s">
+        <v>43</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0.9425</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0.9919</v>
+      </c>
+      <c r="E64" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>52</v>
+      </c>
+      <c r="B65" t="s">
+        <v>43</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0.94079999999999997</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="E65" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>41</v>
+      </c>
+      <c r="B66" t="s">
+        <v>35</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0.93910000000000005</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0.99119999999999997</v>
+      </c>
+      <c r="E66" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>42</v>
+      </c>
+      <c r="B67" t="s">
+        <v>35</v>
+      </c>
+      <c r="C67" s="1">
+        <v>0.93920000000000003</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0.99019999999999997</v>
+      </c>
+      <c r="E67" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>47</v>
+      </c>
+      <c r="B68" t="s">
+        <v>35</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0.9385</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0.98919999999999997</v>
+      </c>
+      <c r="E68" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>57</v>
+      </c>
+      <c r="B69" t="s">
+        <v>43</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0.93430000000000002</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0.99050000000000005</v>
+      </c>
+      <c r="E69" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>58</v>
+      </c>
+      <c r="B70" t="s">
+        <v>35</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0.93910000000000005</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0.99039999999999995</v>
+      </c>
+      <c r="E70" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>59</v>
+      </c>
+      <c r="B71" t="s">
+        <v>43</v>
+      </c>
+      <c r="C71" s="1">
+        <v>0.94180000000000008</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0.99120000000000008</v>
+      </c>
+      <c r="E71" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>61</v>
+      </c>
+      <c r="B84" t="s">
+        <v>35</v>
+      </c>
+      <c r="C84" s="1">
+        <v>0.93840000000000001</v>
+      </c>
+      <c r="D84" s="1">
+        <v>0.99050000000000005</v>
+      </c>
+      <c r="E84" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>63</v>
       </c>
-      <c r="B46" t="s">
-        <v>37</v>
-      </c>
-      <c r="C46" s="1">
-        <v>0.93840000000000001</v>
-      </c>
-      <c r="D46" s="1">
+      <c r="B85" t="s">
+        <v>43</v>
+      </c>
+      <c r="C85" s="1">
+        <v>0.93930000000000002</v>
+      </c>
+      <c r="D85" s="1"/>
+      <c r="E85" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>65</v>
+      </c>
+      <c r="B86" t="s">
+        <v>43</v>
+      </c>
+      <c r="C86" s="1">
+        <v>0.93989999999999996</v>
+      </c>
+      <c r="E86" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>66</v>
+      </c>
+      <c r="B87" t="s">
+        <v>35</v>
+      </c>
+      <c r="C87" s="1">
+        <v>0.93730000000000002</v>
+      </c>
+      <c r="D87" s="1">
         <v>0.99050000000000005</v>
       </c>
-      <c r="E46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>65</v>
-      </c>
-      <c r="B47" t="s">
-        <v>45</v>
-      </c>
-      <c r="C47" s="1">
-        <v>0.93930000000000002</v>
-      </c>
-      <c r="D47" s="1"/>
-      <c r="E47" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="E87" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>67</v>
       </c>
-      <c r="B48" t="s">
-        <v>45</v>
-      </c>
-      <c r="C48" s="1">
-        <v>0.93989999999999996</v>
-      </c>
-      <c r="E48" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="B88" t="s">
+        <v>43</v>
+      </c>
+      <c r="C88" s="1">
+        <v>0.9415</v>
+      </c>
+      <c r="E88" t="s">
         <v>68</v>
       </c>
-      <c r="B49" t="s">
-        <v>37</v>
-      </c>
-      <c r="C49" s="1">
-        <v>0.93730000000000002</v>
-      </c>
-      <c r="D49" s="1">
-        <v>0.99050000000000005</v>
-      </c>
-      <c r="E49" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>69</v>
-      </c>
-      <c r="B50" t="s">
-        <v>45</v>
-      </c>
-      <c r="C50" s="1">
-        <v>0.9415</v>
-      </c>
-      <c r="E50" t="s">
-        <v>70</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:D2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/052c doc/第一次基辅包围战.xlsx
+++ b/052c doc/第一次基辅包围战.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\TempGit\FG-052D\052c doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714AA1E5-A9A2-4DD1-871A-5828A2AEB2A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7EF6C57-2D0D-4B48-9A77-CA409946241E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="88">
   <si>
     <t>改进</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -352,6 +352,30 @@
   </si>
   <si>
     <t>woC_cmpt67 ft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次基辅突围战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dcp80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三段学习率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dcp75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dcp0(70)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ep40</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -395,7 +419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -404,6 +428,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -686,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1218,6 +1243,44 @@
         <v>45</v>
       </c>
     </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0.9415</v>
+      </c>
+      <c r="E39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" t="s">
+        <v>84</v>
+      </c>
+    </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1544,8 +1607,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A38:D38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/052c doc/第一次基辅包围战.xlsx
+++ b/052c doc/第一次基辅包围战.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\TempGit\FG-052D\052c doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7EF6C57-2D0D-4B48-9A77-CA409946241E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB1F250-0979-4927-BDCA-CCB716E68F87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="12" windowWidth="23016" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="90">
   <si>
     <t>改进</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -376,6 +376,14 @@
   </si>
   <si>
     <t>ep40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dcp0covd9xdcp0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ep22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,10 +433,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -712,7 +720,7 @@
   <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -738,12 +746,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1244,12 +1252,12 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -1258,7 +1266,7 @@
       <c r="B39" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="3">
         <v>0.9415</v>
       </c>
       <c r="E39" t="s">
@@ -1279,6 +1287,20 @@
       </c>
       <c r="B41" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.93879999999999997</v>
+      </c>
+      <c r="E42" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">

--- a/052c doc/第一次基辅包围战.xlsx
+++ b/052c doc/第一次基辅包围战.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\TempGit\FG-052D\052c doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB1F250-0979-4927-BDCA-CCB716E68F87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F299EAD3-819D-4A74-A1B1-E60261590C24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="12" windowWidth="23016" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>改进</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -384,6 +384,13 @@
   </si>
   <si>
     <t>ep22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dcp0cov9xdcp0cp50</t>
+  </si>
+  <si>
+    <t>ep35</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -720,7 +727,7 @@
   <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1304,8 +1311,19 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C43" s="1"/>
+      <c r="A43" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.93920000000000003</v>
+      </c>
       <c r="D43" s="1"/>
+      <c r="E43" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C44" s="1"/>

--- a/052c doc/第一次基辅包围战.xlsx
+++ b/052c doc/第一次基辅包围战.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\TempGit\FG-052D\052c doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F299EAD3-819D-4A74-A1B1-E60261590C24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BC5B94-74D1-4332-AAAE-12575431C748}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="12" windowWidth="23016" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="96">
   <si>
     <t>改进</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -391,6 +391,21 @@
   </si>
   <si>
     <t>ep35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dcp0cv9xdcp0tsp50-0</t>
+  </si>
+  <si>
+    <t>ep29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dcp0cv9xdcp0tsp70-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ep24</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -727,7 +742,7 @@
   <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1326,12 +1341,34 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C44" s="1"/>
+      <c r="A44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.94340000000000002</v>
+      </c>
       <c r="D44" s="1"/>
+      <c r="E44" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C45" s="1"/>
+      <c r="A45" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.94020000000000004</v>
+      </c>
       <c r="D45" s="1"/>
+      <c r="E45" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">

--- a/052c doc/第一次基辅包围战.xlsx
+++ b/052c doc/第一次基辅包围战.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\TempGit\FG-052D\052c doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BC5B94-74D1-4332-AAAE-12575431C748}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B21E3F-588D-42B3-9FD0-1FEB4EEE319A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="12" windowWidth="23016" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="111">
   <si>
     <t>改进</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -406,6 +406,65 @@
   </si>
   <si>
     <t>ep24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dcp0cov9xdcp0tsp50-0cp60</t>
+  </si>
+  <si>
+    <t>ep32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dcp0cov9xdcp0tsp50-0cp50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">baseline </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conv1x1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conv1x1-dcp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conv1x1-rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fullrd75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dcp+tsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ep11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dcp+tsp+fc-dcp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~94%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,13 +508,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -739,18 +808,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:N90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="1" max="1" width="35.77734375" customWidth="1"/>
     <col min="2" max="2" width="21.44140625" customWidth="1"/>
     <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="11" max="12" width="13.44140625" customWidth="1"/>
+    <col min="13" max="13" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -768,12 +839,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1197,7 +1268,7 @@
         <v>0.98939999999999995</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>79</v>
       </c>
@@ -1211,7 +1282,7 @@
         <v>0.9869</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>80</v>
       </c>
@@ -1225,7 +1296,7 @@
         <v>0.99009999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>81</v>
       </c>
@@ -1239,7 +1310,7 @@
         <v>0.98850000000000005</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -1256,7 +1327,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -1273,15 +1344,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>86</v>
       </c>
@@ -1295,7 +1366,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>83</v>
       </c>
@@ -1303,7 +1374,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>85</v>
       </c>
@@ -1311,7 +1382,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>88</v>
       </c>
@@ -1325,7 +1396,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>90</v>
       </c>
@@ -1340,7 +1411,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>92</v>
       </c>
@@ -1355,7 +1426,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>94</v>
       </c>
@@ -1369,8 +1440,138 @@
       <c r="E45" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I45" t="s">
+        <v>102</v>
+      </c>
+      <c r="J45" t="s">
+        <v>99</v>
+      </c>
+      <c r="K45" t="s">
+        <v>105</v>
+      </c>
+      <c r="L45" t="s">
+        <v>104</v>
+      </c>
+      <c r="M45" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.93530000000000002</v>
+      </c>
+      <c r="E46" t="s">
+        <v>97</v>
+      </c>
+      <c r="I46" t="s">
+        <v>100</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0.93910000000000005</v>
+      </c>
+      <c r="L46" s="1">
+        <v>0.9415</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.93819999999999992</v>
+      </c>
+      <c r="E47" t="s">
+        <v>108</v>
+      </c>
+      <c r="I47" t="s">
+        <v>101</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="L47" s="4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C48" s="1"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I50" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="L50" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="M50" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="N50" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I51" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="J51" s="6">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="K51" s="6">
+        <v>0.93840000000000001</v>
+      </c>
+      <c r="L51" s="6">
+        <v>0.94340000000000002</v>
+      </c>
+      <c r="M51" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="N51" s="6">
+        <v>0.93730000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I52" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="J52" s="5">
+        <v>0</v>
+      </c>
+      <c r="K52" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="L52" s="7">
+        <v>0.74</v>
+      </c>
+      <c r="M52" s="7">
+        <v>0.81</v>
+      </c>
+      <c r="N52" s="7">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>34</v>
       </c>
@@ -1385,7 +1586,7 @@
       </c>
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>36</v>
       </c>
@@ -1402,7 +1603,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>37</v>
       </c>
@@ -1419,7 +1620,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>38</v>
       </c>
@@ -1436,7 +1637,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>39</v>
       </c>
@@ -1453,7 +1654,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>54</v>
       </c>
@@ -1470,7 +1671,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>40</v>
       </c>
@@ -1608,19 +1809,16 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B84" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C84" s="1">
-        <v>0.93840000000000001</v>
-      </c>
-      <c r="D84" s="1">
-        <v>0.99050000000000005</v>
+        <v>0.9415</v>
       </c>
       <c r="E84" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -1652,35 +1850,55 @@
         <v>69</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>66</v>
-      </c>
-      <c r="B87" t="s">
-        <v>35</v>
-      </c>
-      <c r="C87" s="1">
-        <v>0.93730000000000002</v>
-      </c>
-      <c r="D87" s="1">
-        <v>0.99050000000000005</v>
-      </c>
-      <c r="E87" t="s">
-        <v>56</v>
-      </c>
-    </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B88" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C88" s="1">
-        <v>0.9415</v>
+        <v>0.93920000000000003</v>
+      </c>
+      <c r="D88" s="1">
+        <v>0.99050000000000005</v>
       </c>
       <c r="E88" t="s">
-        <v>68</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>61</v>
+      </c>
+      <c r="B89" t="s">
+        <v>35</v>
+      </c>
+      <c r="C89" s="1">
+        <v>0.93840000000000001</v>
+      </c>
+      <c r="D89" s="1">
+        <v>0.99050000000000005</v>
+      </c>
+      <c r="E89" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>66</v>
+      </c>
+      <c r="B90" t="s">
+        <v>35</v>
+      </c>
+      <c r="C90" s="1">
+        <v>0.93730000000000002</v>
+      </c>
+      <c r="D90" s="1">
+        <v>0.99050000000000005</v>
+      </c>
+      <c r="E90" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/052c doc/第一次基辅包围战.xlsx
+++ b/052c doc/第一次基辅包围战.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\TempGit\FG-052D\052c doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B21E3F-588D-42B3-9FD0-1FEB4EEE319A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CB0472-D99F-4813-8A48-CE755D103BDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="12" windowWidth="23016" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -810,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1425,6 +1425,9 @@
       <c r="E44" t="s">
         <v>93</v>
       </c>
+      <c r="F44" s="1">
+        <v>0.81079999999999997</v>
+      </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">

--- a/052c doc/第一次基辅包围战.xlsx
+++ b/052c doc/第一次基辅包围战.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\TempGit\FG-052D\052c doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CB0472-D99F-4813-8A48-CE755D103BDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D0AB0F-6018-4DE6-BAC7-ECDEE2488FA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="12" windowWidth="23016" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="612" windowWidth="23016" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="120">
   <si>
     <t>改进</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -359,18 +359,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dcp80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>三段学习率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dcp75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dcp0(70)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -420,51 +412,88 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">baseline </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>model</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>conv1x1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>conv1x1-dcp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>conv1x1-rd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fullrd75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dcp+tsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ep11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dcp+tsp+fc-dcp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~94%</t>
+    <t>dcp0cv9xdcp0tsp50last50</t>
+  </si>
+  <si>
+    <t>dcp0cv9xdcp0tsp50-0last95+fc60</t>
+  </si>
+  <si>
+    <t>ep40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dcp0cv9xdcp0tsp50fc50</t>
+  </si>
+  <si>
+    <t>ep21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>q:94.31%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dcp0cv9xdcp0tsp50last45</t>
+  </si>
+  <si>
+    <t>ep18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dcp0cv9xdcp0tsp50last75</t>
+  </si>
+  <si>
+    <t>ep28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dcp0cv9xdcp0tsp50lasttsp69</t>
+  </si>
+  <si>
+    <t>ep11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ep17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r:74.45%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r:83.26%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r:81.08%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r:80.42%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r:84.4%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r:79.49%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dcp0cv9xdcp0tsp75</t>
+  </si>
+  <si>
+    <t>ep35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r:85.46%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -508,7 +537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -517,9 +546,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -810,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -839,12 +865,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1268,7 +1294,7 @@
         <v>0.98939999999999995</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>79</v>
       </c>
@@ -1282,7 +1308,7 @@
         <v>0.9869</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>80</v>
       </c>
@@ -1296,7 +1322,7 @@
         <v>0.99009999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>81</v>
       </c>
@@ -1310,7 +1336,7 @@
         <v>0.98850000000000005</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -1327,7 +1353,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -1344,235 +1370,253 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C39" s="3">
         <v>0.9415</v>
       </c>
       <c r="E39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.93879999999999997</v>
+      </c>
+      <c r="E40" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>83</v>
-      </c>
-      <c r="B40" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.93920000000000003</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B42" t="s">
         <v>43</v>
       </c>
       <c r="C42" s="1">
-        <v>0.93879999999999997</v>
-      </c>
+        <v>0.94340000000000002</v>
+      </c>
+      <c r="D42" s="1"/>
       <c r="E42" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G42" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B43" t="s">
         <v>43</v>
       </c>
       <c r="C43" s="1">
-        <v>0.93920000000000003</v>
+        <v>0.94020000000000004</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="F43" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B44" t="s">
         <v>43</v>
       </c>
       <c r="C44" s="1">
-        <v>0.94340000000000002</v>
-      </c>
-      <c r="D44" s="1"/>
+        <v>0.93530000000000002</v>
+      </c>
       <c r="E44" t="s">
-        <v>93</v>
-      </c>
-      <c r="F44" s="1">
-        <v>0.81079999999999997</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B45" t="s">
         <v>43</v>
       </c>
       <c r="C45" s="1">
-        <v>0.94020000000000004</v>
-      </c>
-      <c r="D45" s="1"/>
+        <v>0.93819999999999992</v>
+      </c>
       <c r="E45" t="s">
-        <v>95</v>
-      </c>
-      <c r="I45" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.93430000000000002</v>
+      </c>
+      <c r="E46" t="s">
+        <v>110</v>
+      </c>
+      <c r="F46" t="s">
+        <v>113</v>
+      </c>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.9264</v>
+      </c>
+      <c r="E47" t="s">
+        <v>100</v>
+      </c>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.93440000000000001</v>
+      </c>
+      <c r="E48" t="s">
         <v>102</v>
       </c>
-      <c r="J45" t="s">
-        <v>99</v>
-      </c>
-      <c r="K45" t="s">
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.93469999999999998</v>
+      </c>
+      <c r="E49" t="s">
         <v>105</v>
       </c>
-      <c r="L45" t="s">
-        <v>104</v>
-      </c>
-      <c r="M45" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>96</v>
-      </c>
-      <c r="B46" t="s">
-        <v>43</v>
-      </c>
-      <c r="C46" s="1">
-        <v>0.93530000000000002</v>
-      </c>
-      <c r="E46" t="s">
-        <v>97</v>
-      </c>
-      <c r="I46" t="s">
-        <v>100</v>
-      </c>
-      <c r="J46" s="1">
-        <v>0.93300000000000005</v>
-      </c>
-      <c r="K46" s="1">
-        <v>0.93910000000000005</v>
-      </c>
-      <c r="L46" s="1">
-        <v>0.9415</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>98</v>
-      </c>
-      <c r="B47" t="s">
-        <v>43</v>
-      </c>
-      <c r="C47" s="1">
-        <v>0.93819999999999992</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="F49" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.93040000000000012</v>
+      </c>
+      <c r="E50" t="s">
+        <v>107</v>
+      </c>
+      <c r="F50" t="s">
+        <v>115</v>
+      </c>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>108</v>
       </c>
-      <c r="I47" t="s">
-        <v>101</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="L47" s="4">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C48" s="1"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I50" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="J50" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="K50" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="L50" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="M50" s="5" t="s">
+      <c r="B51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.93590000000000007</v>
+      </c>
+      <c r="E51" t="s">
         <v>109</v>
       </c>
-      <c r="N50" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I51" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="J51" s="6">
-        <v>0.93300000000000005</v>
-      </c>
-      <c r="K51" s="6">
-        <v>0.93840000000000001</v>
-      </c>
-      <c r="L51" s="6">
-        <v>0.94340000000000002</v>
-      </c>
-      <c r="M51" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="N51" s="6">
-        <v>0.93730000000000002</v>
+      <c r="F51" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I52" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="J52" s="5">
-        <v>0</v>
-      </c>
-      <c r="K52" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="L52" s="7">
-        <v>0.74</v>
-      </c>
-      <c r="M52" s="7">
-        <v>0.81</v>
-      </c>
-      <c r="N52" s="7">
-        <v>0.8</v>
-      </c>
+      <c r="A52" t="s">
+        <v>117</v>
+      </c>
+      <c r="B52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0.93099999999999994</v>
+      </c>
+      <c r="E52" t="s">
+        <v>118</v>
+      </c>
+      <c r="F52" t="s">
+        <v>119</v>
+      </c>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">

--- a/052c doc/第一次基辅包围战.xlsx
+++ b/052c doc/第一次基辅包围战.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\TempGit\FG-052D\052c doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\wd\FG-052D\FG-052D\052c doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D0AB0F-6018-4DE6-BAC7-ECDEE2488FA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DC44C4-7615-42B6-9558-4669EE35860D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="612" windowWidth="23016" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="122">
   <si>
     <t>改进</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -494,6 +494,14 @@
   </si>
   <si>
     <t>r:85.46%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dcp0cv9xdcp0tsp75-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ep34/33</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -836,21 +844,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.77734375" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.75" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="11" max="12" width="13.44140625" customWidth="1"/>
-    <col min="13" max="13" width="17.88671875" customWidth="1"/>
+    <col min="11" max="12" width="13.5" customWidth="1"/>
+    <col min="13" max="13" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -864,7 +872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>70</v>
       </c>
@@ -872,7 +880,7 @@
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -886,7 +894,7 @@
         <v>0.99070000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -900,7 +908,7 @@
         <v>0.96819999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -914,7 +922,7 @@
         <v>0.99080000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -928,7 +936,7 @@
         <v>0.99039999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -942,7 +950,7 @@
         <v>0.99039999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -956,7 +964,7 @@
         <v>0.98360000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -970,7 +978,7 @@
         <v>0.61770000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -984,7 +992,7 @@
         <v>0.93920000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -998,7 +1006,7 @@
         <v>0.9526</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1012,7 +1020,7 @@
         <v>0.98719999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1026,7 +1034,7 @@
         <v>0.8901</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1040,7 +1048,7 @@
         <v>0.98860000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1054,7 +1062,7 @@
         <v>0.95069999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1068,7 +1076,7 @@
         <v>0.98770000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1079,7 +1087,7 @@
         <v>0.98970000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1093,7 +1101,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1107,7 +1115,7 @@
         <v>0.98948999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -1121,7 +1129,7 @@
         <v>0.97460000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -1135,7 +1143,7 @@
         <v>0.98609999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -1149,7 +1157,7 @@
         <v>0.94489999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -1163,7 +1171,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>71</v>
       </c>
@@ -1180,7 +1188,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>72</v>
       </c>
@@ -1194,7 +1202,7 @@
         <v>0.9899</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>72</v>
       </c>
@@ -1208,7 +1216,7 @@
         <v>0.98980000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>74</v>
       </c>
@@ -1222,7 +1230,7 @@
         <v>0.97430000000000005</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>75</v>
       </c>
@@ -1236,7 +1244,7 @@
         <v>0.97770000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>76</v>
       </c>
@@ -1250,7 +1258,7 @@
         <v>0.9899</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1266,7 +1274,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -1280,7 +1288,7 @@
         <v>0.98939999999999995</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>78</v>
       </c>
@@ -1294,7 +1302,7 @@
         <v>0.98939999999999995</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>79</v>
       </c>
@@ -1308,7 +1316,7 @@
         <v>0.9869</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>80</v>
       </c>
@@ -1322,7 +1330,7 @@
         <v>0.99009999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>81</v>
       </c>
@@ -1336,7 +1344,7 @@
         <v>0.98850000000000005</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -1353,7 +1361,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -1370,7 +1378,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>82</v>
       </c>
@@ -1378,7 +1386,7 @@
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>84</v>
       </c>
@@ -1392,7 +1400,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>86</v>
       </c>
@@ -1406,7 +1414,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>88</v>
       </c>
@@ -1421,7 +1429,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>90</v>
       </c>
@@ -1442,7 +1450,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>92</v>
       </c>
@@ -1460,7 +1468,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>94</v>
       </c>
@@ -1474,7 +1482,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>96</v>
       </c>
@@ -1488,7 +1496,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>98</v>
       </c>
@@ -1508,7 +1516,7 @@
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>99</v>
       </c>
@@ -1524,7 +1532,7 @@
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>101</v>
       </c>
@@ -1538,7 +1546,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>104</v>
       </c>
@@ -1555,7 +1563,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>106</v>
       </c>
@@ -1578,7 +1586,7 @@
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>108</v>
       </c>
@@ -1595,7 +1603,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>117</v>
       </c>
@@ -1618,7 +1626,24 @@
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>120</v>
+      </c>
+      <c r="B53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0.9274</v>
+      </c>
+      <c r="E53" t="s">
+        <v>121</v>
+      </c>
+      <c r="F53" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>34</v>
       </c>
@@ -1633,7 +1658,7 @@
       </c>
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>36</v>
       </c>
@@ -1650,7 +1675,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>37</v>
       </c>
@@ -1667,7 +1692,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>38</v>
       </c>
@@ -1684,7 +1709,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>39</v>
       </c>
@@ -1701,7 +1726,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>54</v>
       </c>
@@ -1718,7 +1743,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>40</v>
       </c>
@@ -1735,7 +1760,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>52</v>
       </c>
@@ -1752,7 +1777,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>41</v>
       </c>
@@ -1769,7 +1794,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>42</v>
       </c>
@@ -1786,7 +1811,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>47</v>
       </c>
@@ -1803,7 +1828,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>57</v>
       </c>
@@ -1820,7 +1845,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>58</v>
       </c>
@@ -1837,7 +1862,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>59</v>
       </c>
@@ -1854,7 +1879,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>67</v>
       </c>
@@ -1868,7 +1893,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>63</v>
       </c>
@@ -1883,7 +1908,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>65</v>
       </c>
@@ -1897,7 +1922,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>61</v>
       </c>
@@ -1914,7 +1939,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>61</v>
       </c>
@@ -1931,7 +1956,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>66</v>
       </c>

--- a/052c doc/第一次基辅包围战.xlsx
+++ b/052c doc/第一次基辅包围战.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\wd\FG-052D\FG-052D\052c doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DC44C4-7615-42B6-9558-4669EE35860D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DCB1C0-1DCB-4F64-9215-ADA63B7A002A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -509,7 +509,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,6 +519,21 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -545,7 +560,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -562,6 +577,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -844,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1429,42 +1446,42 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="42" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="1">
+      <c r="B42" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="9">
         <v>0.94340000000000002</v>
       </c>
-      <c r="D42" s="1"/>
-      <c r="E42" t="s">
+      <c r="D42" s="9"/>
+      <c r="E42" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="43" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B43" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" s="1">
+      <c r="B43" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="9">
         <v>0.94020000000000004</v>
       </c>
-      <c r="D43" s="1"/>
-      <c r="E43" t="s">
+      <c r="D43" s="9"/>
+      <c r="E43" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="8" t="s">
         <v>112</v>
       </c>
     </row>

--- a/052c doc/第一次基辅包围战.xlsx
+++ b/052c doc/第一次基辅包围战.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\wd\FG-052D\FG-052D\052c doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DCB1C0-1DCB-4F64-9215-ADA63B7A002A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A72E07C-72C8-4F32-ABAB-6AD790D54A86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="120">
   <si>
     <t>改进</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -279,34 +280,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dcpfc70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ep45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dcp70tsp2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fullrd80</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dcp70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ep41</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ep30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第一次基辅包围前有效实验记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -462,14 +439,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>r:74.45%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r:83.26%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>r:81.08%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -497,11 +466,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dcp0cv9xdcp0tsp75-0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ep34/33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fullrd85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ep25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r:75.25%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r:82.79%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dcp0cv9xdcp0tsp75-0last50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r:84.48%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dcp0cv9xdcp0tsp70-0cp50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,7 +502,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -539,6 +532,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -560,7 +560,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -571,14 +571,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -859,10 +864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N90"/>
+  <dimension ref="A1:N91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:XFD42"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -890,12 +895,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
+      <c r="A2" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1190,7 +1195,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B24" t="s">
         <v>2</v>
@@ -1207,10 +1212,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C25" s="1">
         <v>0.91759999999999997</v>
@@ -1221,7 +1226,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B26" t="s">
         <v>35</v>
@@ -1235,10 +1240,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C27" s="1">
         <v>0.82130000000000003</v>
@@ -1249,7 +1254,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B28" t="s">
         <v>35</v>
@@ -1263,7 +1268,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B29" t="s">
         <v>35</v>
@@ -1293,7 +1298,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
@@ -1307,7 +1312,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B32" t="s">
         <v>35</v>
@@ -1321,7 +1326,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B33" t="s">
         <v>35</v>
@@ -1335,7 +1340,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
@@ -1349,7 +1354,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
@@ -1396,30 +1401,30 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
+      <c r="A38" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B39" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C39" s="3">
         <v>0.9415</v>
       </c>
       <c r="E39" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B40" t="s">
         <v>43</v>
@@ -1428,12 +1433,12 @@
         <v>0.93879999999999997</v>
       </c>
       <c r="E40" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B41" t="s">
         <v>43</v>
@@ -1443,51 +1448,51 @@
       </c>
       <c r="D41" s="1"/>
       <c r="E41" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="9">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="7">
         <v>0.94340000000000002</v>
       </c>
-      <c r="D42" s="9"/>
-      <c r="E42" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" s="9">
+      <c r="D42" s="7"/>
+      <c r="E42" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="7">
         <v>0.94020000000000004</v>
       </c>
-      <c r="D43" s="9"/>
-      <c r="E43" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>112</v>
+      <c r="D43" s="7"/>
+      <c r="E43" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B44" t="s">
         <v>43</v>
@@ -1496,12 +1501,12 @@
         <v>0.93530000000000002</v>
       </c>
       <c r="E44" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B45" t="s">
         <v>43</v>
@@ -1510,12 +1515,12 @@
         <v>0.93819999999999992</v>
       </c>
       <c r="E45" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B46" t="s">
         <v>43</v>
@@ -1524,10 +1529,10 @@
         <v>0.93430000000000002</v>
       </c>
       <c r="E46" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F46" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -1535,7 +1540,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B47" t="s">
         <v>43</v>
@@ -1544,14 +1549,14 @@
         <v>0.9264</v>
       </c>
       <c r="E47" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B48" t="s">
         <v>43</v>
@@ -1560,12 +1565,12 @@
         <v>0.93440000000000001</v>
       </c>
       <c r="E48" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B49" t="s">
         <v>43</v>
@@ -1574,15 +1579,15 @@
         <v>0.93469999999999998</v>
       </c>
       <c r="E49" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F49" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B50" t="s">
         <v>43</v>
@@ -1591,10 +1596,10 @@
         <v>0.93040000000000012</v>
       </c>
       <c r="E50" t="s">
+        <v>101</v>
+      </c>
+      <c r="F50" t="s">
         <v>107</v>
-      </c>
-      <c r="F50" t="s">
-        <v>115</v>
       </c>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
@@ -1605,7 +1610,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B51" t="s">
         <v>43</v>
@@ -1614,38 +1619,38 @@
         <v>0.93590000000000007</v>
       </c>
       <c r="E51" t="s">
+        <v>103</v>
+      </c>
+      <c r="F51" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F51" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>117</v>
-      </c>
-      <c r="B52" t="s">
-        <v>43</v>
-      </c>
-      <c r="C52" s="1">
+      <c r="B52" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52" s="7">
         <v>0.93099999999999994</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F52" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="F52" t="s">
-        <v>119</v>
-      </c>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="6"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B53" t="s">
         <v>43</v>
@@ -1654,289 +1659,259 @@
         <v>0.9274</v>
       </c>
       <c r="E53" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F53" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="11" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>34</v>
-      </c>
-      <c r="B58" t="s">
-        <v>35</v>
-      </c>
-      <c r="C58" s="1">
-        <v>0.93979999999999997</v>
-      </c>
-      <c r="D58" s="1">
-        <v>0.98939999999999995</v>
-      </c>
-      <c r="E58" s="1"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>36</v>
-      </c>
-      <c r="B59" t="s">
-        <v>43</v>
-      </c>
-      <c r="C59" s="1">
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="D59" s="1">
-        <v>0.99139999999999995</v>
-      </c>
-      <c r="E59" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>37</v>
-      </c>
-      <c r="B60" t="s">
-        <v>43</v>
-      </c>
-      <c r="C60" s="1">
-        <v>0.94069999999999998</v>
-      </c>
-      <c r="D60" s="1">
-        <v>0.99080000000000001</v>
-      </c>
-      <c r="E60" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>38</v>
-      </c>
-      <c r="B61" t="s">
-        <v>43</v>
-      </c>
-      <c r="C61" s="1">
-        <v>0.94320000000000004</v>
-      </c>
-      <c r="D61" s="1">
-        <v>0.99170000000000003</v>
-      </c>
-      <c r="E61" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>39</v>
-      </c>
-      <c r="B62" t="s">
-        <v>43</v>
-      </c>
-      <c r="C62" s="1">
-        <v>0.94030000000000002</v>
-      </c>
-      <c r="D62" s="1">
-        <v>0.99080000000000001</v>
-      </c>
-      <c r="E62" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>54</v>
-      </c>
-      <c r="B63" t="s">
-        <v>43</v>
-      </c>
-      <c r="C63" s="1">
-        <v>0.94520000000000004</v>
-      </c>
-      <c r="D63" s="1">
-        <v>0.99139999999999995</v>
-      </c>
-      <c r="E63" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>40</v>
-      </c>
-      <c r="B64" t="s">
-        <v>43</v>
-      </c>
-      <c r="C64" s="1">
-        <v>0.9425</v>
-      </c>
-      <c r="D64" s="1">
-        <v>0.9919</v>
-      </c>
-      <c r="E64" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>52</v>
-      </c>
-      <c r="B65" t="s">
-        <v>43</v>
-      </c>
-      <c r="C65" s="1">
-        <v>0.94079999999999997</v>
-      </c>
-      <c r="D65" s="1">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="E65" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>41</v>
-      </c>
-      <c r="B66" t="s">
-        <v>35</v>
-      </c>
-      <c r="C66" s="1">
-        <v>0.93910000000000005</v>
-      </c>
-      <c r="D66" s="1">
-        <v>0.99119999999999997</v>
-      </c>
-      <c r="E66" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>42</v>
-      </c>
-      <c r="B67" t="s">
-        <v>35</v>
-      </c>
-      <c r="C67" s="1">
-        <v>0.93920000000000003</v>
-      </c>
-      <c r="D67" s="1">
-        <v>0.99019999999999997</v>
-      </c>
-      <c r="E67" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>47</v>
-      </c>
-      <c r="B68" t="s">
-        <v>35</v>
-      </c>
-      <c r="C68" s="1">
-        <v>0.9385</v>
-      </c>
-      <c r="D68" s="1">
-        <v>0.98919999999999997</v>
-      </c>
-      <c r="E68" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>57</v>
-      </c>
-      <c r="B69" t="s">
-        <v>43</v>
-      </c>
-      <c r="C69" s="1">
-        <v>0.93430000000000002</v>
-      </c>
-      <c r="D69" s="1">
-        <v>0.99050000000000005</v>
-      </c>
-      <c r="E69" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>58</v>
-      </c>
-      <c r="B70" t="s">
-        <v>35</v>
-      </c>
-      <c r="C70" s="1">
-        <v>0.93910000000000005</v>
-      </c>
-      <c r="D70" s="1">
-        <v>0.99039999999999995</v>
-      </c>
-      <c r="E70" t="s">
-        <v>45</v>
+      <c r="B54" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="F54" s="11" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="B71" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C71" s="1">
-        <v>0.94180000000000008</v>
+        <v>0.93979999999999997</v>
       </c>
       <c r="D71" s="1">
-        <v>0.99120000000000008</v>
-      </c>
-      <c r="E71" t="s">
-        <v>60</v>
+        <v>0.98939999999999995</v>
+      </c>
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>36</v>
+      </c>
+      <c r="B72" t="s">
+        <v>43</v>
+      </c>
+      <c r="C72" s="1">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0.99139999999999995</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>37</v>
+      </c>
+      <c r="B73" t="s">
+        <v>43</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0.94069999999999998</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0.99080000000000001</v>
+      </c>
+      <c r="E73" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>38</v>
+      </c>
+      <c r="B74" t="s">
+        <v>43</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0.94320000000000004</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0.99170000000000003</v>
+      </c>
+      <c r="E74" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>39</v>
+      </c>
+      <c r="B75" t="s">
+        <v>43</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0.94030000000000002</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0.99080000000000001</v>
+      </c>
+      <c r="E75" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>54</v>
+      </c>
+      <c r="B76" t="s">
+        <v>43</v>
+      </c>
+      <c r="C76" s="1">
+        <v>0.94520000000000004</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0.99139999999999995</v>
+      </c>
+      <c r="E76" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>40</v>
+      </c>
+      <c r="B77" t="s">
+        <v>43</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0.9425</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0.9919</v>
+      </c>
+      <c r="E77" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>52</v>
+      </c>
+      <c r="B78" t="s">
+        <v>43</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0.94079999999999997</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="E78" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>41</v>
+      </c>
+      <c r="B79" t="s">
+        <v>35</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0.93910000000000005</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0.99119999999999997</v>
+      </c>
+      <c r="E79" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>42</v>
+      </c>
+      <c r="B80" t="s">
+        <v>35</v>
+      </c>
+      <c r="C80" s="1">
+        <v>0.93920000000000003</v>
+      </c>
+      <c r="D80" s="1">
+        <v>0.99019999999999997</v>
+      </c>
+      <c r="E80" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>47</v>
+      </c>
+      <c r="B81" t="s">
+        <v>35</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0.9385</v>
+      </c>
+      <c r="D81" s="1">
+        <v>0.98919999999999997</v>
+      </c>
+      <c r="E81" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>57</v>
+      </c>
+      <c r="B82" t="s">
+        <v>43</v>
+      </c>
+      <c r="C82" s="1">
+        <v>0.93430000000000002</v>
+      </c>
+      <c r="D82" s="1">
+        <v>0.99050000000000005</v>
+      </c>
+      <c r="E82" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>58</v>
+      </c>
+      <c r="B83" t="s">
+        <v>35</v>
+      </c>
+      <c r="C83" s="1">
+        <v>0.93910000000000005</v>
+      </c>
+      <c r="D83" s="1">
+        <v>0.99039999999999995</v>
+      </c>
+      <c r="E83" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B84" t="s">
         <v>43</v>
       </c>
       <c r="C84" s="1">
-        <v>0.9415</v>
+        <v>0.94180000000000008</v>
+      </c>
+      <c r="D84" s="1">
+        <v>0.99120000000000008</v>
       </c>
       <c r="E84" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>63</v>
-      </c>
-      <c r="B85" t="s">
-        <v>43</v>
-      </c>
-      <c r="C85" s="1">
-        <v>0.93930000000000002</v>
-      </c>
-      <c r="D85" s="1"/>
-      <c r="E85" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>65</v>
-      </c>
-      <c r="B86" t="s">
-        <v>43</v>
-      </c>
-      <c r="C86" s="1">
-        <v>0.93989999999999996</v>
-      </c>
-      <c r="E86" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -1975,7 +1950,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B90" t="s">
         <v>35</v>
@@ -1988,6 +1963,23 @@
       </c>
       <c r="E90" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>113</v>
+      </c>
+      <c r="B91" t="s">
+        <v>35</v>
+      </c>
+      <c r="C91" s="1">
+        <v>0.93459999999999999</v>
+      </c>
+      <c r="D91" s="1">
+        <v>0.99050000000000005</v>
+      </c>
+      <c r="E91" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/052c doc/第一次基辅包围战.xlsx
+++ b/052c doc/第一次基辅包围战.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\wd\FG-052D\FG-052D\052c doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A72E07C-72C8-4F32-ABAB-6AD790D54A86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EF10DB-44E9-408E-9A3B-CDC14DDFA316}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="125">
   <si>
     <t>改进</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -458,18 +457,6 @@
     <t>dcp0cv9xdcp0tsp75</t>
   </si>
   <si>
-    <t>ep35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r:85.46%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ep34/33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fullrd85</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -486,15 +473,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dcp0cv9xdcp0tsp75-0last50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r:84.48%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dcp0cv9xdcp0tsp70-0cp50</t>
+    <t>dcp0cv9xdcp0tsp75-0cp50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ep59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dcp0cv9xdcp0tsp70-final</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ep48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r:83.78%/6.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r:85.92%/7.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dcp0cv9xdcp0tsp70-finalcp50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dcp0cv9xdcp0tsp80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ep46/45/47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r:88.08%/8.39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fullrd88</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -560,7 +579,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -579,11 +598,12 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -864,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N91"/>
+  <dimension ref="A1:N92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -876,6 +896,7 @@
     <col min="2" max="2" width="21.5" customWidth="1"/>
     <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
     <col min="11" max="12" width="13.5" customWidth="1"/>
     <col min="13" max="13" width="17.875" customWidth="1"/>
   </cols>
@@ -895,12 +916,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1401,12 +1422,12 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
@@ -1466,7 +1487,7 @@
         <v>85</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>97</v>
@@ -1487,7 +1508,7 @@
         <v>87</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
@@ -1633,13 +1654,13 @@
         <v>43</v>
       </c>
       <c r="C52" s="7">
-        <v>0.93099999999999994</v>
+        <v>0.93589999999999995</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
@@ -1649,33 +1670,69 @@
       <c r="N52" s="9"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="A53" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" s="11">
+        <v>0.93420000000000003</v>
+      </c>
+      <c r="D53" s="11"/>
+      <c r="E53" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54" s="11">
+        <v>0.93620000000000003</v>
+      </c>
+      <c r="E54" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B53" t="s">
-        <v>43</v>
-      </c>
-      <c r="C53" s="1">
-        <v>0.9274</v>
-      </c>
-      <c r="E53" t="s">
-        <v>112</v>
-      </c>
-      <c r="F53" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="F54" s="11" t="s">
-        <v>116</v>
+      <c r="F54" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55" s="11">
+        <v>0.93369999999999997</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0.93469999999999998</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -1967,7 +2024,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B91" t="s">
         <v>35</v>
@@ -1979,7 +2036,15 @@
         <v>0.99050000000000005</v>
       </c>
       <c r="E91" t="s">
-        <v>114</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>124</v>
+      </c>
+      <c r="C92" s="1">
+        <v>0.93679999999999997</v>
       </c>
     </row>
   </sheetData>
